--- a/CLaRO v2/testsets_template_results.xlsx
+++ b/CLaRO v2/testsets_template_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mj/Desktop/CLaRO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F02BD90-D8C1-4849-AF95-7A422BE78D6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCAA6A7-7628-6F42-88CE-58879BC892A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NewCQs_rewrites_and_patterns" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="504">
   <si>
     <r>
       <t>1.</t>
@@ -3794,6 +3794,18 @@
   </si>
   <si>
     <t>What is [EC1] of [EC2] in [EC3]?</t>
+  </si>
+  <si>
+    <t>43b</t>
+  </si>
+  <si>
+    <t>59a</t>
+  </si>
+  <si>
+    <t>59b</t>
+  </si>
+  <si>
+    <t>43a</t>
   </si>
 </sst>
 </file>
@@ -4009,7 +4021,537 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="133">
+  <dxfs count="186">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5652,8 +6194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6715,16 +7257,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E36 E46:E1048576 F1">
-    <cfRule type="duplicateValues" dxfId="132" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576 F1">
-    <cfRule type="duplicateValues" dxfId="131" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="duplicateValues" dxfId="130" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="duplicateValues" dxfId="129" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8183,22 +8725,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E128:E132 C133:C140">
-    <cfRule type="duplicateValues" dxfId="128" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B132">
-    <cfRule type="duplicateValues" dxfId="127" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:E132 B176:E1048576 A133:C175 B48:D48 B1:E47">
-    <cfRule type="duplicateValues" dxfId="126" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E35">
-    <cfRule type="duplicateValues" dxfId="125" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E42">
-    <cfRule type="duplicateValues" dxfId="124" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:I132 B176:I1048576 A133:G175 G15:G27 B1:F27">
-    <cfRule type="duplicateValues" dxfId="123" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9754,178 +10296,178 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E121:E133">
-    <cfRule type="duplicateValues" dxfId="122" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B132">
-    <cfRule type="duplicateValues" dxfId="121" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134:B135">
-    <cfRule type="duplicateValues" dxfId="120" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134:B135">
-    <cfRule type="duplicateValues" dxfId="119" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134:B135">
-    <cfRule type="duplicateValues" dxfId="118" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="117" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="116" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="115" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138:B139">
-    <cfRule type="duplicateValues" dxfId="114" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138:B139">
-    <cfRule type="duplicateValues" dxfId="113" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138:B139">
-    <cfRule type="duplicateValues" dxfId="112" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B140:B141">
-    <cfRule type="duplicateValues" dxfId="111" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B140:B141">
-    <cfRule type="duplicateValues" dxfId="110" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B140:B141">
-    <cfRule type="duplicateValues" dxfId="109" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B142">
-    <cfRule type="duplicateValues" dxfId="108" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B142">
-    <cfRule type="duplicateValues" dxfId="107" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B142">
-    <cfRule type="duplicateValues" dxfId="106" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B143">
-    <cfRule type="duplicateValues" dxfId="105" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B143">
-    <cfRule type="duplicateValues" dxfId="104" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B143">
-    <cfRule type="duplicateValues" dxfId="103" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B150">
-    <cfRule type="duplicateValues" dxfId="102" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B150">
-    <cfRule type="duplicateValues" dxfId="101" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B150">
-    <cfRule type="duplicateValues" dxfId="100" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B151:B152">
-    <cfRule type="duplicateValues" dxfId="99" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B151:B152">
-    <cfRule type="duplicateValues" dxfId="98" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B151:B152">
-    <cfRule type="duplicateValues" dxfId="97" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B153:B155">
-    <cfRule type="duplicateValues" dxfId="96" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B153:B155">
-    <cfRule type="duplicateValues" dxfId="95" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B153:B155">
-    <cfRule type="duplicateValues" dxfId="94" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156">
-    <cfRule type="duplicateValues" dxfId="93" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156">
-    <cfRule type="duplicateValues" dxfId="92" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156">
-    <cfRule type="duplicateValues" dxfId="91" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B157">
-    <cfRule type="duplicateValues" dxfId="90" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B157">
-    <cfRule type="duplicateValues" dxfId="89" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B157">
-    <cfRule type="duplicateValues" dxfId="88" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B158">
-    <cfRule type="duplicateValues" dxfId="87" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B158">
-    <cfRule type="duplicateValues" dxfId="86" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B158">
-    <cfRule type="duplicateValues" dxfId="85" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159:B163">
-    <cfRule type="duplicateValues" dxfId="84" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159:B163">
-    <cfRule type="duplicateValues" dxfId="83" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159:B163">
-    <cfRule type="duplicateValues" dxfId="82" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B167">
-    <cfRule type="duplicateValues" dxfId="81" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B167">
-    <cfRule type="duplicateValues" dxfId="80" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B167">
-    <cfRule type="duplicateValues" dxfId="79" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B168">
-    <cfRule type="duplicateValues" dxfId="78" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B168">
-    <cfRule type="duplicateValues" dxfId="77" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B168">
-    <cfRule type="duplicateValues" dxfId="76" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B169:B171">
-    <cfRule type="duplicateValues" dxfId="75" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B169:B171">
-    <cfRule type="duplicateValues" dxfId="74" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136">
-    <cfRule type="duplicateValues" dxfId="73" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136">
-    <cfRule type="duplicateValues" dxfId="72" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144:B145">
-    <cfRule type="duplicateValues" dxfId="71" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144:B145">
-    <cfRule type="duplicateValues" dxfId="70" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164:B166">
-    <cfRule type="duplicateValues" dxfId="69" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164:B166">
-    <cfRule type="duplicateValues" dxfId="68" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:E1048576">
-    <cfRule type="duplicateValues" dxfId="67" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E28">
-    <cfRule type="duplicateValues" dxfId="66" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E35">
-    <cfRule type="duplicateValues" dxfId="65" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="108"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9936,8 +10478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C205"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="A172" sqref="A172:B205"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="C166" sqref="C166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11037,196 +11579,313 @@
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="5">
+        <v>33</v>
+      </c>
       <c r="B133" s="17" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="5">
+        <v>53</v>
+      </c>
       <c r="B134" s="17" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>500</v>
+      </c>
       <c r="B135" s="17" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="5">
+        <v>34</v>
+      </c>
       <c r="B136" s="17" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>501</v>
+      </c>
       <c r="B137" s="18" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="5">
+        <v>27</v>
+      </c>
       <c r="B138" s="17" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="5">
+        <v>68</v>
+      </c>
       <c r="B139" s="17" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="5">
+        <v>89</v>
+      </c>
       <c r="B140" s="18" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="5">
+        <v>61</v>
+      </c>
       <c r="B141" s="17" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="5">
+        <v>83</v>
+      </c>
       <c r="B142" s="17" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="5">
+        <v>29</v>
+      </c>
       <c r="B143" s="17" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="5">
+        <v>73</v>
+      </c>
       <c r="B144" s="18" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="5">
+        <v>31</v>
+      </c>
       <c r="B145" s="18" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="5">
+        <v>74</v>
+      </c>
       <c r="B146" s="17" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="5">
+        <v>22</v>
+      </c>
       <c r="B147" s="18" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="5">
+        <v>45</v>
+      </c>
       <c r="B148" s="17" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="5">
+        <v>4</v>
+      </c>
       <c r="B149" s="17" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="5">
+        <v>32</v>
+      </c>
       <c r="B150" s="18" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="5">
+        <v>11</v>
+      </c>
       <c r="B151" s="18" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="5">
+        <v>47</v>
+      </c>
       <c r="B152" s="17" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="5">
+        <v>24</v>
+      </c>
       <c r="B153" s="17" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" s="5">
+        <v>109</v>
+      </c>
       <c r="B154" s="17" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" s="5">
+        <v>21</v>
+      </c>
       <c r="B155" s="17" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="5">
+        <v>42</v>
+      </c>
       <c r="B156" s="17" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" s="5">
+        <v>221</v>
+      </c>
       <c r="B157" s="17" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" s="5">
+        <v>39</v>
+      </c>
       <c r="B158" s="17" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="5">
+        <v>37</v>
+      </c>
       <c r="B159" s="17" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" s="5">
+        <v>234</v>
+      </c>
       <c r="B160" s="18" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" s="5">
+        <v>79</v>
+      </c>
       <c r="B161" s="18" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" s="5" t="s">
+        <v>502</v>
+      </c>
       <c r="B162" s="17" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" s="5">
+        <v>88</v>
+      </c>
       <c r="B163" s="18" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" s="5">
+        <v>52</v>
+      </c>
       <c r="B164" s="17" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" s="5">
+        <v>50</v>
+      </c>
       <c r="B165" s="17" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" s="5">
+        <v>15</v>
+      </c>
       <c r="B166" s="18" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" s="5">
+        <v>38</v>
+      </c>
       <c r="B167" s="18" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" s="5">
+        <v>48</v>
+      </c>
       <c r="B168" s="17" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" s="5" t="s">
+        <v>503</v>
+      </c>
       <c r="B169" s="17" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" s="5">
+        <v>46</v>
+      </c>
       <c r="B170" s="17" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" s="5">
+        <v>44</v>
+      </c>
       <c r="B171" s="17" t="s">
         <v>367</v>
       </c>
@@ -11505,184 +12164,184 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C39:C132">
-    <cfRule type="duplicateValues" dxfId="64" priority="169"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="222"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B132">
-    <cfRule type="duplicateValues" dxfId="63" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="115"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B132">
+    <cfRule type="duplicateValues" dxfId="62" priority="61"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:C9">
+    <cfRule type="duplicateValues" dxfId="61" priority="57"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A172:B205">
+    <cfRule type="duplicateValues" dxfId="60" priority="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B172:B198">
+    <cfRule type="duplicateValues" dxfId="59" priority="55"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B172:B205">
+    <cfRule type="duplicateValues" dxfId="58" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134:B135">
-    <cfRule type="duplicateValues" dxfId="62" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134:B135">
-    <cfRule type="duplicateValues" dxfId="61" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134:B135">
-    <cfRule type="duplicateValues" dxfId="60" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="59" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="58" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="duplicateValues" dxfId="57" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138:B139">
-    <cfRule type="duplicateValues" dxfId="56" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138:B139">
-    <cfRule type="duplicateValues" dxfId="55" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138:B139">
-    <cfRule type="duplicateValues" dxfId="54" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B140:B141">
-    <cfRule type="duplicateValues" dxfId="53" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B140:B141">
-    <cfRule type="duplicateValues" dxfId="52" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B140:B141">
-    <cfRule type="duplicateValues" dxfId="51" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B142">
-    <cfRule type="duplicateValues" dxfId="50" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B142">
-    <cfRule type="duplicateValues" dxfId="49" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B142">
-    <cfRule type="duplicateValues" dxfId="48" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B143">
-    <cfRule type="duplicateValues" dxfId="47" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B143">
-    <cfRule type="duplicateValues" dxfId="46" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B143">
-    <cfRule type="duplicateValues" dxfId="45" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B150">
-    <cfRule type="duplicateValues" dxfId="44" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B150">
-    <cfRule type="duplicateValues" dxfId="43" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B150">
-    <cfRule type="duplicateValues" dxfId="42" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B151:B152">
-    <cfRule type="duplicateValues" dxfId="41" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B151:B152">
-    <cfRule type="duplicateValues" dxfId="40" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B151:B152">
-    <cfRule type="duplicateValues" dxfId="39" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B153:B155">
-    <cfRule type="duplicateValues" dxfId="38" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B153:B155">
-    <cfRule type="duplicateValues" dxfId="37" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B153:B155">
-    <cfRule type="duplicateValues" dxfId="36" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156">
-    <cfRule type="duplicateValues" dxfId="35" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156">
-    <cfRule type="duplicateValues" dxfId="34" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156">
-    <cfRule type="duplicateValues" dxfId="33" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B157">
-    <cfRule type="duplicateValues" dxfId="32" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B157">
-    <cfRule type="duplicateValues" dxfId="31" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B157">
-    <cfRule type="duplicateValues" dxfId="30" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B158">
-    <cfRule type="duplicateValues" dxfId="29" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B158">
-    <cfRule type="duplicateValues" dxfId="28" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B158">
-    <cfRule type="duplicateValues" dxfId="27" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159:B163">
-    <cfRule type="duplicateValues" dxfId="26" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159:B163">
-    <cfRule type="duplicateValues" dxfId="25" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159:B163">
-    <cfRule type="duplicateValues" dxfId="24" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B167">
-    <cfRule type="duplicateValues" dxfId="23" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B167">
-    <cfRule type="duplicateValues" dxfId="22" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B167">
-    <cfRule type="duplicateValues" dxfId="21" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B168">
-    <cfRule type="duplicateValues" dxfId="20" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B168">
-    <cfRule type="duplicateValues" dxfId="19" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B168">
-    <cfRule type="duplicateValues" dxfId="18" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B169:B171">
-    <cfRule type="duplicateValues" dxfId="17" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B169:B171">
-    <cfRule type="duplicateValues" dxfId="16" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136">
-    <cfRule type="duplicateValues" dxfId="15" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136">
-    <cfRule type="duplicateValues" dxfId="14" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144:B145">
-    <cfRule type="duplicateValues" dxfId="13" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144:B145">
-    <cfRule type="duplicateValues" dxfId="12" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164:B166">
-    <cfRule type="duplicateValues" dxfId="11" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164:B166">
-    <cfRule type="duplicateValues" dxfId="10" priority="61"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B171">
-    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8:C9">
-    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A172:B205">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B172:B198">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B172:B205">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="53"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13509,13 +14168,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A172:A205">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D11 B13:D1048576 B12:C12">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14595,8 +15254,8 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B132">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
